--- a/data/financial_statements/soci/SBNY.xlsx
+++ b/data/financial_statements/soci/SBNY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,1235 +578,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1202461000</v>
+      </c>
+      <c r="C2">
         <v>1020104000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>812241000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>676569000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>639765300</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>587087000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>560178000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>524243000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>512748900</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>505705000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>494446000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>493994000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>497422000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>498771000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>497700000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>479498000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>494011200</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>438771000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>422419000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>404274000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>395454000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>378788000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>371487000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>360481000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>352365000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>346194000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>337104000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>324238000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>311742000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>290849000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>277350000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>264111000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>255298000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>244568000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>236451000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>222938000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>212626000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>202494000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>189574000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>182467000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.8794999999999999</v>
+      </c>
+      <c r="C3">
         <v>0.7376</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.45</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2906</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2477</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1609</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1329</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0612</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0308</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0139</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0065</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0302</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0069</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1367</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1782</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1861</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2492</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1584</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1371</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1215</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1223</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0941</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.102</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1118</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1303</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1903</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.2154</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.2277</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.2211</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.1892</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.173</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.1847</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.2007</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.2078</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.2473</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.2218</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.1658</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1412</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1012</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1071</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>518562000</v>
+      </c>
+      <c r="C4">
         <v>302363000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>125473000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>68606000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>70389000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>74844000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>79589000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>85035000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>93575000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>92779000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>94649000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>131551000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>143101000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>156036000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>154373000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>146573000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>125783000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>109432000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>95792000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>78926000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>67185000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>61851000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>54697000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>48850000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>45473000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>44659000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>42313000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>37464000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>34060000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>33027000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>31295000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>31465000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>32222000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>31247000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>30353000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>29300000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>28285000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>27244000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>25755000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>25523000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>683899000</v>
+      </c>
+      <c r="C5">
         <v>717741000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>686767900</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>607963000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>569376300</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>512243000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>480589000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>439208000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>419173900</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>412926000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>399797000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>362443000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>354321000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>342735000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>343327000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>332925000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>368228100</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>329339000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>326627000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>325348000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>328269000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>316937000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>316790000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>311631000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>306892000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>301535000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>294791000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>286774000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>277682000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>257822000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>246055000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>232646000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>223076000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>213321000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>206098000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>193638000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>184341000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>175250000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>163819000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>156944000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>276071000</v>
+      </c>
+      <c r="C6">
         <v>254527000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>214294000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>196075000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>190824000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>185228000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>180327000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>197263000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>193251000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>213227000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>244881000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>210789000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>147777000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>135459000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>137296000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>131373000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>125586000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>124559000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>120563000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>278094000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>151703000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>119968000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>303863000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>122829000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>118152000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>176677000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>125578000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>112138000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>105114000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>97559000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>93870000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>89585000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>83577000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>81944000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>80609000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>78224000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>47069000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>73344000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>71116000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>68857000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>407828100</v>
+      </c>
+      <c r="C7">
         <v>463214000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>472474000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>411887900</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>378552300</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>327015000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>300262000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>241945000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>225922900</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>199699000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>154916000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>151654000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>206544000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>207276000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>206031000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>201552000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>242642100</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>204780000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>206064000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>47254000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>176566100</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>196969000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>12927000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>188802000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>188740100</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>124858000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>169213000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>174636000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>172568000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>160263000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>152185000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>143061000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>139499000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>131377000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>125489000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>115414000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>137272000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>101906000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>92703000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>88087000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>407828000</v>
+      </c>
+      <c r="C8">
         <v>463214000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>472474000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>411888000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>378552100</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>327015000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>300262000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>241945000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>225923000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>199699000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>154916000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>151654000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>206544000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>207276000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>206031000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>201552000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>242642000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>204780000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>206064000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>47254000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>176566000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>196969000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>12927000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>188802000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>188739000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>124858000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>169213000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>174637000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>172568000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>160263000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>152185000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>143061000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>139499000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>131377000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>125489000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>115414000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>108838000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>101906000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>92703000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>88087000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>106982000</v>
+      </c>
+      <c r="C9">
         <v>104747000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>133272000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>73354000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>106560000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>85592000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>85769000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>51412000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>52915000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>61149000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>37702000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>52067000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>58932000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>59158000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>58730000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>58097000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>80711000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>49334000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>51479000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>12782000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>61701000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>72498000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-1030000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>54886000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>74802000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>48748000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>66971000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>70602000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>69580000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>64038000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>61723000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>59671000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>58089000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>54572000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>53007000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>49407000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>44497000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>41738000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>39101000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>37454000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>300846000</v>
+      </c>
+      <c r="C10">
         <v>358467000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>339202000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>338534000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>271992100</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>241423000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>214493000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>190533000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>173008000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>138550000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>117214000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>99587000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>147612000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>148118000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>147301000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>143455000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>161931000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>155446000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>154585000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>34472000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>114865000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>124471000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>13957000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>133916000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>113937000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>76110000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>102242000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>104035000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>102988000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>96225000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>90462000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>83390000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>81410000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>76805000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>72482000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>66007000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>64341000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>60168000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>53602000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>50633000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>9125000</v>
@@ -1713,399 +1857,405 @@
         <v>9125000</v>
       </c>
       <c r="H11">
+        <v>9125000</v>
+      </c>
+      <c r="I11">
         <v>10512000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>535000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1448000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>487000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>478000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>465000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>464000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>450000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>291721000</v>
+      </c>
+      <c r="C12">
         <v>349148000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>330077000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>329409000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>263078100</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>232087000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>205368000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>180021000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>173008000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>138550000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>117214000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>99587000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>148077000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>148118000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>147301000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>142990000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>162381000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>154996000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>154585000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>34472000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>114865000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>124471000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>13957000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>133916000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>113937000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>76110000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>102242000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>104035000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>102988000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>96225000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>90462000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>83390000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>81410000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>76805000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>72482000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>66007000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>64341000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>60168000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>53602000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>50633000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>5.59</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.28</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5.34</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4.38</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.91</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.59</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.27</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.28</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.62</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2.22</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.89</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2.79</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2.76</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.72</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2.65</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2.94</v>
-      </c>
-      <c r="R13">
-        <v>2.84</v>
       </c>
       <c r="S13">
         <v>2.84</v>
       </c>
       <c r="T13">
+        <v>2.84</v>
+      </c>
+      <c r="U13">
         <v>0.64</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2.12</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2.3</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.26</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2.49</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2.12</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1.42</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1.91</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1.98</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2.02</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1.89</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1.78</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1.66</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1.62</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1.54</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1.5</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1.39</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1.36</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1.27</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1.13</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1.07</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>5.57</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5.26</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5.3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.88</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.57</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.24</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.26</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.62</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.21</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.88</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.78</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.75</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.72</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.65</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.94</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.84</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2.83</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.63</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2.11</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2.29</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.26</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2.48</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2.11</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.41</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.9</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.97</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2.01</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1.88</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1.77</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1.64</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1.6</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1.52</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.48</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1.37</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.34</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1.25</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1.12</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1.06</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>62440000</v>
@@ -2114,364 +2264,373 @@
         <v>62440000</v>
       </c>
       <c r="D15">
+        <v>62440000</v>
+      </c>
+      <c r="E15">
         <v>61670000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>57871000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>59284000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>57128000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>54998000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>52641000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>52673000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>52672000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>52546000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>53774000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>53722000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>54213000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>54165000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>54406000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>54544000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>54527000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>54143000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>54001000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>54098000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>54083000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>53718000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>53406000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>53683000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>53668000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>52589000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>50739000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>50888000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>50809000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>50352000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>49066000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>50000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>48270000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>47318000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>47267000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>47271000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>47260000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>47249000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>62627000</v>
+      </c>
+      <c r="C16">
         <v>62673000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>62692000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>62125000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>58508000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>59745000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>57527000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>55531000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>52899000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>52835000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>52785000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>52686000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>54011000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>53830000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>54250000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>54269000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>54666000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>54610000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>54599000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>54395000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>54418000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>54300000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>54290000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>54099000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>53811000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>53918000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>53886000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>52919000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>51302000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>51264000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>51217000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>50892000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>49870000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>50529000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>48897000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>48170000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>48029000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>48048000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>47929000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>47877000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>0.5687</v>
+      </c>
+      <c r="C17">
         <v>0.7036</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.8455</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.8986</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.89</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.8725000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.8579</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.8378</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.8175</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.8165</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.8086</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.7337</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.7123</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.6872</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.6898</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.6943</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.7454</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.7506</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.7732</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.8048</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.8300999999999999</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.8367</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.8528</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.8645</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.8709</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.871</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.8745000000000001</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.8845</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.8907</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.8864</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.8872</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.8809</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.8738</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.8722</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.8716</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.8686</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.867</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.8655</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.8641</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.8601</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2590,1108 +2749,1135 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>0.3392</v>
+      </c>
+      <c r="C19">
         <v>0.4541</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5817</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6088</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.5917</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.5570000000000001</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.536</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.4615</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.4406</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.3949</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.3133</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.307</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.4152</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.4156</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.414</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.4203</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.4912</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.4667</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.4878</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.1169</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.4465</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.52</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0348</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.5238</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.5356</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.3607</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.502</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.5386</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.5536</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.551</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.5487</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.5417</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.5464</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.5372</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.5306999999999999</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.5177</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.5119</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.5033</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.489</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.4828</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2426</v>
+      </c>
+      <c r="C20">
         <v>0.3423</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.4064</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4869</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4112</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.3953</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3666</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3434</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3374</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.274</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2371</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.2016</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2977</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.297</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.296</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.2982</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3287</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.3533</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.366</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.0853</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2905</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3286</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0376</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.3715</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.3233</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.2198</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.3033</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.3209</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.3304</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.3308</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.3262</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3157</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.3189</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.314</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3065</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.2961</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3026</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.2971</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.2827</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.2775</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>300846000</v>
+      </c>
+      <c r="C21">
         <v>358467000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>339202000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>338534000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>271992100</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>241423000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>214493000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>190533000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>173008000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>138550000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>117214000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>99587000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>147612000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>148118000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>147301000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>143455000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>161931000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>155446000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>154585000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>34472000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>114865000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>124471000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>13957000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>133916000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>113937000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>76110000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>102242000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>104035000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>102988000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>96225000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>90462000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>83390000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>81410000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>76805000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>72482000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>66007000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>64341000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>60168000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>53602000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>50633000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>300846000</v>
+      </c>
+      <c r="C22">
         <v>358467000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>339202000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>338534000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>271991900</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>241423000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>214493000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>190533000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>173008000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>138550000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>117214000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>99587000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>147612000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>148118000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>147301000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>143455000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>161931000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>155446000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>154585000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>34472000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>114865000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>124471000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>13957000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>133916000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>113937000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>76110000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>102242000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>104035000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>102988000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>96225000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>90462000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>83390000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>81410000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>76805000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>72482000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>66007000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>64341000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>60168000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>53602000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>50633000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>4.8182</v>
+      </c>
+      <c r="C23">
         <v>5.741</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5.4324</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5.4894</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4.5792</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4.0723</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.7546</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>3.4644</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.2861</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2.6304</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.2254</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1.8952</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.7838</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2.7571</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.7171</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.6485</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.9868</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.8499</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2.835</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.6367</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2.1186</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2.3008</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.2581</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2.4929</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2.1198</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1.4178</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1.9051</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1.9783</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2.0251</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1.8909</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1.7804</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1.6561</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1.6144</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1.5361</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1.5016</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1.395</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1.3608</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1.2728</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1.1342</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1.0716</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>4.8038</v>
+      </c>
+      <c r="C24">
         <v>5.7196</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5.4106</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5.4492</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4.4971</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.0409</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.7286</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.4311</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.255</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.6223</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2.2206</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.8902</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.7484</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.7516</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.7152</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.6434</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.9527</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.8465</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2.8313</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.6337</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2.0907</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.2923</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.2571</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>2.4754</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>2.0902</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.4116</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.8974</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.9659</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1.9901</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1.877</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1.7663</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1.6386</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1.5769</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1.52</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1.4823</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1.3703</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1.3344</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1.2522</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1.1184</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1.0576</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>4.8182</v>
+      </c>
+      <c r="C25">
         <v>5.741</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5.4324</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5.4894</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4.5792</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4.0723</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.7546</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3.4644</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.2861</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2.6304</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2.2254</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.8952</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.7838</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2.7571</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2.7171</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2.6485</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.9868</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.8499</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.835</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.6367</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2.1186</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2.3008</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.2581</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2.4929</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2.1198</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.4178</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.9051</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.9783</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>2.0251</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.8909</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.7804</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1.6561</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1.6144</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1.5361</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1.5016</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1.395</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1.3608</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1.2728</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1.1342</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.0716</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>4.8038</v>
+      </c>
+      <c r="C26">
         <v>5.7196</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5.4106</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5.4492</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4.4971</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.0409</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.7286</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>3.4311</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.255</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.6223</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.2206</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.8902</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.7484</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.7516</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.7152</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.6434</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.9527</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.8465</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.8313</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.6337</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2.0907</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2.2923</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.2571</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2.4754</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2.0902</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.4116</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.8974</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.9659</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.9901</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.877</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.7663</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.6386</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1.5769</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.52</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.4823</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.3703</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1.3344</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1.2522</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.1184</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.0576</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>62674000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>62692000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>62125000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>60563000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>59745000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>57527000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>55531000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>52970000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>52835000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>52785000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>52686000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>53234000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>53830000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>54250000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>54269000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>54631000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>54610000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>54599000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>54395000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>54377000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>54300000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>54290000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>54099000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>54060000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>53918000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>53886000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>52919000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>51341000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>51264000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>51217000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>50892000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>50936000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>50529000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>48897000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>48170000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>48174000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>48048000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>47929000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>47877000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3810,126 +3996,132 @@
       <c r="AN28">
         <v>0</v>
       </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>0.6093</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.4989</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.2466</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.665</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-0.4959</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.0829</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.3332</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.0885</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.5944</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.5668</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.5631</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.1062</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.1476</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.3298</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.017</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.4171</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.4701</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.3449</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.2314</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.2163</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.0109</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.3909</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.0926</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.7523</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.6397</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-0.2241</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.475</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.9072</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.08309999999999999</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-0.3658</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.2624</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.1845</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.482</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.7407</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.3623</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.9826</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.6361</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-0.9555</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.2516</v>
       </c>
     </row>
